--- a/ra_exploer/examples/RA 資料/U shape_AC%.xlsx
+++ b/ra_exploer/examples/RA 資料/U shape_AC%.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hp06316p\技術開發一部&amp;二部\技術開發一部\技術開發三課\軟體開發\RA 資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\td_toolkits_reconstruc\ra_exploer\examples\RA 資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19170" windowHeight="8295"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19170" windowHeight="8295"/>
   </bookViews>
   <sheets>
     <sheet name="Δangle" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>項目</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -84,9 +84,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>RB006</t>
-  </si>
-  <si>
     <t>1099 like 液晶TR2評選_20210528(更正CR).pptx</t>
   </si>
   <si>
@@ -94,17 +91,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>RB007</t>
-  </si>
-  <si>
     <t>1100 like 液晶TR2評選_20210528(更正CR).pptx</t>
   </si>
   <si>
     <t>ZIX-7054XX</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB008</t>
   </si>
   <si>
     <t>1101 like 液晶TR2評選_20210528(更正CR).pptx</t>
@@ -632,7 +623,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -662,7 +653,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -679,7 +670,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>8</v>
@@ -708,13 +699,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>10</v>
@@ -732,18 +723,18 @@
         <v>11</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>10</v>
@@ -761,18 +752,18 @@
         <v>11</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>10</v>
@@ -790,7 +781,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
